--- a/AAII_Financials/Quarterly/MFCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MFCO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/MFCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MFCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>MFCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,128 +665,135 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E8" s="3">
         <v>800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>800</v>
-      </c>
-      <c r="K8" s="3">
-        <v>700</v>
       </c>
       <c r="L8" s="3">
         <v>700</v>
       </c>
       <c r="M8" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N8" s="3">
         <v>800</v>
       </c>
       <c r="O8" s="3">
+        <v>800</v>
+      </c>
+      <c r="P8" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>800</v>
+      </c>
+      <c r="E9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>600</v>
-      </c>
-      <c r="H9" s="3">
-        <v>500</v>
       </c>
       <c r="I9" s="3">
         <v>500</v>
@@ -801,24 +808,27 @@
         <v>500</v>
       </c>
       <c r="M9" s="3">
+        <v>500</v>
+      </c>
+      <c r="N9" s="3">
         <v>600</v>
-      </c>
-      <c r="N9" s="3">
-        <v>500</v>
       </c>
       <c r="O9" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>500</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
-      </c>
-      <c r="E10" s="3">
-        <v>400</v>
       </c>
       <c r="F10" s="3">
         <v>400</v>
@@ -827,16 +837,16 @@
         <v>400</v>
       </c>
       <c r="H10" s="3">
+        <v>400</v>
+      </c>
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
-      </c>
-      <c r="K10" s="3">
-        <v>200</v>
       </c>
       <c r="L10" s="3">
         <v>200</v>
@@ -845,13 +855,16 @@
         <v>200</v>
       </c>
       <c r="N10" s="3">
+        <v>200</v>
+      </c>
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,31 +966,34 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-300</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -990,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,8 +1071,9 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1054,16 +1081,16 @@
         <v>900</v>
       </c>
       <c r="E17" s="3">
+        <v>900</v>
+      </c>
+      <c r="F17" s="3">
         <v>1000</v>
-      </c>
-      <c r="F17" s="3">
-        <v>900</v>
       </c>
       <c r="G17" s="3">
         <v>900</v>
       </c>
       <c r="H17" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="I17" s="3">
         <v>800</v>
@@ -1078,42 +1105,45 @@
         <v>800</v>
       </c>
       <c r="M17" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="N17" s="3">
         <v>900</v>
       </c>
       <c r="O17" s="3">
+        <v>900</v>
+      </c>
+      <c r="P17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-100</v>
+        <v>400</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
@@ -1127,8 +1157,11 @@
       <c r="O18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1153,11 +1187,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1185,31 +1219,34 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>100</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>100</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
@@ -1221,13 +1258,16 @@
         <v>0</v>
       </c>
       <c r="N21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,37 +1307,40 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>100</v>
       </c>
-      <c r="F23" s="3">
-        <v>-100</v>
-      </c>
       <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
@@ -1308,13 +1351,16 @@
       <c r="O23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,37 +1439,40 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
-        <v>-100</v>
-      </c>
       <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
@@ -1431,37 +1483,40 @@
       <c r="O26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
-        <v>-100</v>
-      </c>
       <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
@@ -1472,8 +1527,11 @@
       <c r="O27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1645,10 +1715,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1677,37 +1747,40 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
-        <v>-100</v>
-      </c>
       <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
@@ -1718,8 +1791,11 @@
       <c r="O33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,37 +1835,40 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
-        <v>-100</v>
-      </c>
       <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
@@ -1800,54 +1879,60 @@
       <c r="O35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,31 +1966,32 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
-      </c>
-      <c r="E41" s="3">
-        <v>600</v>
       </c>
       <c r="F41" s="3">
         <v>600</v>
       </c>
       <c r="G41" s="3">
+        <v>600</v>
+      </c>
+      <c r="H41" s="3">
         <v>700</v>
-      </c>
-      <c r="H41" s="3">
-        <v>600</v>
       </c>
       <c r="I41" s="3">
         <v>600</v>
       </c>
       <c r="J41" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K41" s="3">
         <v>700</v>
@@ -1913,16 +2000,19 @@
         <v>700</v>
       </c>
       <c r="M41" s="3">
+        <v>700</v>
+      </c>
+      <c r="N41" s="3">
         <v>800</v>
-      </c>
-      <c r="N41" s="3">
-        <v>900</v>
       </c>
       <c r="O41" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,25 +2052,28 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E43" s="3">
         <v>400</v>
       </c>
       <c r="F43" s="3">
+        <v>400</v>
+      </c>
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
-      </c>
-      <c r="H43" s="3">
-        <v>300</v>
       </c>
       <c r="I43" s="3">
         <v>300</v>
@@ -1989,30 +2082,33 @@
         <v>300</v>
       </c>
       <c r="K43" s="3">
+        <v>300</v>
+      </c>
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
-      </c>
-      <c r="M43" s="3">
-        <v>200</v>
       </c>
       <c r="N43" s="3">
         <v>200</v>
       </c>
       <c r="O43" s="3">
+        <v>200</v>
+      </c>
+      <c r="P43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>200</v>
+      </c>
+      <c r="E44" s="3">
         <v>500</v>
-      </c>
-      <c r="E44" s="3">
-        <v>400</v>
       </c>
       <c r="F44" s="3">
         <v>400</v>
@@ -2030,13 +2126,13 @@
         <v>400</v>
       </c>
       <c r="K44" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L44" s="3">
         <v>500</v>
       </c>
       <c r="M44" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N44" s="3">
         <v>400</v>
@@ -2044,26 +2140,29 @@
       <c r="O44" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
@@ -2077,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2085,49 +2184,55 @@
       <c r="O45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E46" s="3">
         <v>1500</v>
       </c>
       <c r="F46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G46" s="3">
         <v>1300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1300</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1400</v>
       </c>
       <c r="J46" s="3">
         <v>1400</v>
       </c>
       <c r="K46" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="L46" s="3">
         <v>1500</v>
       </c>
       <c r="M46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N46" s="3">
         <v>1600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,13 +2272,16 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E48" s="3">
         <v>300</v>
@@ -2200,7 +2308,7 @@
         <v>300</v>
       </c>
       <c r="M48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N48" s="3">
         <v>400</v>
@@ -2208,8 +2316,11 @@
       <c r="O48" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1600</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1700</v>
       </c>
       <c r="J54" s="3">
         <v>1700</v>
       </c>
       <c r="K54" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="L54" s="3">
         <v>1800</v>
       </c>
       <c r="M54" s="3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="N54" s="3">
         <v>2000</v>
       </c>
       <c r="O54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P54" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,8 +2618,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2529,13 +2660,16 @@
       <c r="O57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
@@ -2550,7 +2684,7 @@
         <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -2570,13 +2704,16 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
         <v>200</v>
@@ -2611,8 +2748,11 @@
       <c r="O59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2623,13 +2763,13 @@
         <v>400</v>
       </c>
       <c r="F60" s="3">
+        <v>400</v>
+      </c>
+      <c r="G60" s="3">
         <v>300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>300</v>
       </c>
       <c r="I60" s="3">
         <v>300</v>
@@ -2638,27 +2778,30 @@
         <v>300</v>
       </c>
       <c r="K60" s="3">
+        <v>300</v>
+      </c>
+      <c r="L60" s="3">
         <v>400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>300</v>
       </c>
       <c r="M60" s="3">
         <v>300</v>
       </c>
       <c r="N60" s="3">
+        <v>300</v>
+      </c>
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>200</v>
@@ -2676,7 +2819,7 @@
         <v>200</v>
       </c>
       <c r="J61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K61" s="3">
         <v>300</v>
@@ -2693,8 +2836,11 @@
       <c r="O61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,13 +3012,16 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E66" s="3">
         <v>500</v>
@@ -2872,13 +3030,13 @@
         <v>500</v>
       </c>
       <c r="G66" s="3">
+        <v>500</v>
+      </c>
+      <c r="H66" s="3">
         <v>600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>600</v>
       </c>
       <c r="J66" s="3">
         <v>600</v>
@@ -2893,13 +3051,16 @@
         <v>600</v>
       </c>
       <c r="N66" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="O66" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="E72" s="3">
         <v>-800</v>
       </c>
       <c r="F72" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G72" s="3">
         <v>-900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-800</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-900</v>
       </c>
       <c r="I72" s="3">
         <v>-900</v>
       </c>
       <c r="J72" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="K72" s="3">
         <v>-800</v>
       </c>
       <c r="L72" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="M72" s="3">
         <v>-700</v>
       </c>
       <c r="N72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O72" s="3">
         <v>-600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="E76" s="3">
         <v>1200</v>
       </c>
       <c r="F76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G76" s="3">
         <v>1100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1200</v>
-      </c>
-      <c r="H76" s="3">
-        <v>1100</v>
       </c>
       <c r="I76" s="3">
         <v>1100</v>
       </c>
       <c r="J76" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K76" s="3">
         <v>1200</v>
       </c>
       <c r="L76" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="M76" s="3">
         <v>1300</v>
       </c>
       <c r="N76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O76" s="3">
         <v>1400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,83 +3514,89 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
-        <v>-100</v>
-      </c>
       <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
         <v>100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
@@ -3412,8 +3607,11 @@
       <c r="O81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>300</v>
       </c>
       <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3745,22 +3966,22 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3774,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4083,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3868,10 +4098,10 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -3897,8 +4127,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,13 +4321,16 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4119,8 +4365,11 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,45 +4409,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
-        <v>-100</v>
-      </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MFCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MFCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>MFCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,105 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F8" s="3">
         <v>1300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>800</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G8" s="3">
-        <v>900</v>
       </c>
       <c r="H8" s="3">
         <v>1000</v>
       </c>
       <c r="I8" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="J8" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K8" s="3">
         <v>800</v>
@@ -764,30 +772,36 @@
         <v>700</v>
       </c>
       <c r="M8" s="3">
+        <v>800</v>
+      </c>
+      <c r="N8" s="3">
         <v>700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
+        <v>700</v>
+      </c>
+      <c r="P8" s="3">
         <v>800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>900</v>
+      </c>
+      <c r="F9" s="3">
         <v>800</v>
-      </c>
-      <c r="E9" s="3">
-        <v>500</v>
-      </c>
-      <c r="F9" s="3">
-        <v>600</v>
       </c>
       <c r="G9" s="3">
         <v>500</v>
@@ -799,7 +813,7 @@
         <v>500</v>
       </c>
       <c r="J9" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K9" s="3">
         <v>500</v>
@@ -811,39 +825,45 @@
         <v>500</v>
       </c>
       <c r="N9" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O9" s="3">
         <v>500</v>
       </c>
       <c r="P9" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q9" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R9" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E10" s="3">
         <v>300</v>
       </c>
       <c r="F10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G10" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H10" s="3">
         <v>400</v>
       </c>
       <c r="I10" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J10" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K10" s="3">
         <v>300</v>
@@ -852,19 +872,25 @@
         <v>200</v>
       </c>
       <c r="M10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N10" s="3">
         <v>200</v>
       </c>
       <c r="O10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P10" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>300</v>
+      </c>
+      <c r="R10" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +907,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +953,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,19 +1003,25 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>-300</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3">
+        <v>-300</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -995,11 +1035,11 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1013,8 +1053,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1103,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,31 +1124,33 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F17" s="3">
         <v>900</v>
-      </c>
-      <c r="E17" s="3">
-        <v>900</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1000</v>
       </c>
       <c r="G17" s="3">
         <v>900</v>
       </c>
       <c r="H17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
-        <v>800</v>
-      </c>
       <c r="J17" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K17" s="3">
         <v>800</v>
@@ -1108,40 +1162,46 @@
         <v>800</v>
       </c>
       <c r="N17" s="3">
+        <v>800</v>
+      </c>
+      <c r="O17" s="3">
+        <v>800</v>
+      </c>
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>400</v>
       </c>
-      <c r="E18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-100</v>
-      </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
@@ -1149,7 +1209,7 @@
         <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
@@ -1160,8 +1220,14 @@
       <c r="P18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1244,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1190,14 +1258,14 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1222,19 +1290,25 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>400</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>100</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
@@ -1246,13 +1320,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M21" s="3">
         <v>0</v>
@@ -1261,13 +1335,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,43 +1390,49 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>100</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
@@ -1354,20 +1440,26 @@
       <c r="P23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1398,8 +1490,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,43 +1540,49 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>400</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>100</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
@@ -1486,43 +1590,49 @@
       <c r="P26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>400</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>100</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
@@ -1530,8 +1640,14 @@
       <c r="P27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1740,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1840,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1718,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -1750,43 +1890,49 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>400</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>100</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
@@ -1794,8 +1940,14 @@
       <c r="P33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,43 +1990,49 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>400</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>100</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
@@ -1882,57 +2040,69 @@
       <c r="P35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2139,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
-      </c>
-      <c r="G41" s="3">
-        <v>600</v>
-      </c>
-      <c r="H41" s="3">
-        <v>700</v>
       </c>
       <c r="I41" s="3">
         <v>600</v>
       </c>
       <c r="J41" s="3">
+        <v>700</v>
+      </c>
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
-        <v>700</v>
-      </c>
       <c r="L41" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M41" s="3">
         <v>700</v>
       </c>
       <c r="N41" s="3">
+        <v>700</v>
+      </c>
+      <c r="O41" s="3">
+        <v>700</v>
+      </c>
+      <c r="P41" s="3">
         <v>800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,22 +2235,28 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>600</v>
+      </c>
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>400</v>
-      </c>
-      <c r="F43" s="3">
-        <v>400</v>
-      </c>
-      <c r="G43" s="3">
-        <v>300</v>
       </c>
       <c r="H43" s="3">
         <v>400</v>
@@ -2079,42 +2265,48 @@
         <v>300</v>
       </c>
       <c r="J43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K43" s="3">
         <v>300</v>
       </c>
       <c r="L43" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M43" s="3">
         <v>300</v>
       </c>
       <c r="N43" s="3">
+        <v>400</v>
+      </c>
+      <c r="O43" s="3">
+        <v>300</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>300</v>
+      </c>
+      <c r="F44" s="3">
         <v>200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>500</v>
-      </c>
-      <c r="F44" s="3">
-        <v>400</v>
-      </c>
-      <c r="G44" s="3">
-        <v>400</v>
       </c>
       <c r="H44" s="3">
         <v>400</v>
@@ -2129,22 +2321,28 @@
         <v>400</v>
       </c>
       <c r="L44" s="3">
+        <v>400</v>
+      </c>
+      <c r="M44" s="3">
+        <v>400</v>
+      </c>
+      <c r="N44" s="3">
         <v>500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>500</v>
-      </c>
-      <c r="N44" s="3">
-        <v>400</v>
-      </c>
-      <c r="O44" s="3">
-        <v>400</v>
       </c>
       <c r="P44" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>400</v>
+      </c>
+      <c r="R44" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2152,7 +2350,7 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -2167,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2179,30 +2377,36 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E46" s="3">
         <v>2000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G46" s="3">
         <v>1500</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1300</v>
       </c>
       <c r="H46" s="3">
         <v>1500</v>
@@ -2211,28 +2415,34 @@
         <v>1300</v>
       </c>
       <c r="J46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L46" s="3">
         <v>1400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,19 +2485,25 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>500</v>
+      </c>
+      <c r="F48" s="3">
         <v>400</v>
-      </c>
-      <c r="E48" s="3">
-        <v>300</v>
-      </c>
-      <c r="F48" s="3">
-        <v>300</v>
       </c>
       <c r="G48" s="3">
         <v>300</v>
@@ -2311,16 +2527,22 @@
         <v>300</v>
       </c>
       <c r="N48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P48" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>400</v>
+      </c>
+      <c r="R48" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2585,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2685,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2735,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,19 +2785,25 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F54" s="3">
         <v>2400</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1800</v>
       </c>
       <c r="G54" s="3">
         <v>1700</v>
@@ -2560,31 +2812,37 @@
         <v>1800</v>
       </c>
       <c r="I54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K54" s="3">
         <v>1600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,16 +2879,18 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -2663,8 +2925,14 @@
       <c r="P57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+      <c r="R57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2672,10 +2940,10 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
@@ -2687,10 +2955,10 @@
         <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2707,19 +2975,25 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
-        <v>200</v>
-      </c>
       <c r="F59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G59" s="3">
         <v>200</v>
@@ -2751,22 +3025,28 @@
       <c r="P59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>200</v>
+      </c>
+      <c r="R59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F60" s="3">
         <v>400</v>
       </c>
       <c r="G60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H60" s="3">
         <v>400</v>
@@ -2775,28 +3055,34 @@
         <v>300</v>
       </c>
       <c r="J60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K60" s="3">
         <v>300</v>
       </c>
       <c r="L60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M60" s="3">
         <v>300</v>
       </c>
       <c r="N60" s="3">
+        <v>400</v>
+      </c>
+      <c r="O60" s="3">
         <v>300</v>
-      </c>
-      <c r="O60" s="3">
-        <v>400</v>
       </c>
       <c r="P60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>400</v>
+      </c>
+      <c r="R60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2804,10 +3090,10 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>200</v>
@@ -2822,10 +3108,10 @@
         <v>200</v>
       </c>
       <c r="K61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M61" s="3">
         <v>300</v>
@@ -2839,8 +3125,14 @@
       <c r="P61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>300</v>
+      </c>
+      <c r="R61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3175,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,25 +3325,31 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E66" s="3">
         <v>500</v>
       </c>
       <c r="F66" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G66" s="3">
         <v>500</v>
       </c>
       <c r="H66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I66" s="3">
         <v>500</v>
@@ -3042,7 +3358,7 @@
         <v>600</v>
       </c>
       <c r="K66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L66" s="3">
         <v>600</v>
@@ -3054,13 +3370,19 @@
         <v>600</v>
       </c>
       <c r="O66" s="3">
+        <v>600</v>
+      </c>
+      <c r="P66" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q66" s="3">
         <v>700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,8 +3595,14 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3262,13 +3610,13 @@
         <v>0</v>
       </c>
       <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
         <v>-800</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-900</v>
       </c>
       <c r="H72" s="3">
         <v>-800</v>
@@ -3277,28 +3625,34 @@
         <v>-900</v>
       </c>
       <c r="J72" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M72" s="3">
         <v>-800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,8 +3795,14 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3438,13 +3810,13 @@
         <v>2000</v>
       </c>
       <c r="E76" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F76" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G76" s="3">
         <v>1200</v>
-      </c>
-      <c r="F76" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G76" s="3">
-        <v>1100</v>
       </c>
       <c r="H76" s="3">
         <v>1200</v>
@@ -3453,28 +3825,34 @@
         <v>1100</v>
       </c>
       <c r="J76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K76" s="3">
         <v>1100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M76" s="3">
         <v>1200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,92 +3895,104 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>400</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
-        <v>100</v>
-      </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>100</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
@@ -3610,8 +4000,14 @@
       <c r="P81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4024,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4070,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,22 +4320,28 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>100</v>
-      </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>100</v>
@@ -3916,28 +4350,34 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,13 +4394,15 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3969,26 +4411,26 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -3998,8 +4440,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,13 +4540,19 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4101,13 +4561,13 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -4130,8 +4590,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,19 +4810,25 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -4368,8 +4860,14 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4910,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>-100</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-100</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MFCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MFCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>MFCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,132 +665,139 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="E8" s="3">
         <v>1200</v>
       </c>
       <c r="F8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G8" s="3">
         <v>1300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>800</v>
-      </c>
-      <c r="N8" s="3">
-        <v>700</v>
       </c>
       <c r="O8" s="3">
         <v>700</v>
       </c>
       <c r="P8" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q8" s="3">
         <v>800</v>
       </c>
       <c r="R8" s="3">
+        <v>800</v>
+      </c>
+      <c r="S8" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -801,22 +808,22 @@
         <v>900</v>
       </c>
       <c r="F9" s="3">
+        <v>900</v>
+      </c>
+      <c r="G9" s="3">
         <v>800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>600</v>
-      </c>
-      <c r="K9" s="3">
-        <v>500</v>
       </c>
       <c r="L9" s="3">
         <v>500</v>
@@ -831,33 +838,36 @@
         <v>500</v>
       </c>
       <c r="P9" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q9" s="3">
         <v>600</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>500</v>
       </c>
       <c r="R9" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E10" s="3">
         <v>300</v>
       </c>
       <c r="F10" s="3">
+        <v>300</v>
+      </c>
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
-      </c>
-      <c r="H10" s="3">
-        <v>400</v>
       </c>
       <c r="I10" s="3">
         <v>400</v>
@@ -866,16 +876,16 @@
         <v>400</v>
       </c>
       <c r="K10" s="3">
+        <v>400</v>
+      </c>
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>300</v>
-      </c>
-      <c r="N10" s="3">
-        <v>200</v>
       </c>
       <c r="O10" s="3">
         <v>200</v>
@@ -884,13 +894,16 @@
         <v>200</v>
       </c>
       <c r="Q10" s="3">
+        <v>200</v>
+      </c>
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,22 +1026,25 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>-300</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1041,8 +1061,8 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,8 +1152,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1135,25 +1162,25 @@
         <v>1200</v>
       </c>
       <c r="E17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F17" s="3">
         <v>1300</v>
-      </c>
-      <c r="F17" s="3">
-        <v>900</v>
       </c>
       <c r="G17" s="3">
         <v>900</v>
       </c>
       <c r="H17" s="3">
+        <v>900</v>
+      </c>
+      <c r="I17" s="3">
         <v>1000</v>
-      </c>
-      <c r="I17" s="3">
-        <v>900</v>
       </c>
       <c r="J17" s="3">
         <v>900</v>
       </c>
       <c r="K17" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L17" s="3">
         <v>800</v>
@@ -1168,51 +1195,54 @@
         <v>800</v>
       </c>
       <c r="P17" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="Q17" s="3">
         <v>900</v>
       </c>
       <c r="R17" s="3">
+        <v>900</v>
+      </c>
+      <c r="S17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>400</v>
       </c>
-      <c r="G18" s="3">
-        <v>-100</v>
-      </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
@@ -1226,8 +1256,11 @@
       <c r="R18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1264,11 +1298,11 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1296,40 +1330,43 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>400</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>100</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>100</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N21" s="3">
         <v>0</v>
@@ -1341,18 +1378,21 @@
         <v>0</v>
       </c>
       <c r="Q21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1396,46 +1436,49 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
@@ -1446,8 +1489,11 @@
       <c r="R23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1457,12 +1503,12 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,46 +1595,49 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
@@ -1596,46 +1648,49 @@
       <c r="R26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>400</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
       <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
@@ -1646,8 +1701,11 @@
       <c r="R27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1864,10 +1934,10 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -1896,46 +1966,49 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
       <c r="O33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
@@ -1946,8 +2019,11 @@
       <c r="R33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,46 +2072,49 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
       <c r="O35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
@@ -2046,63 +2125,69 @@
       <c r="R35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,40 +2227,41 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>800</v>
+      </c>
+      <c r="E41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
-      </c>
-      <c r="H41" s="3">
-        <v>600</v>
       </c>
       <c r="I41" s="3">
         <v>600</v>
       </c>
       <c r="J41" s="3">
+        <v>600</v>
+      </c>
+      <c r="K41" s="3">
         <v>700</v>
-      </c>
-      <c r="K41" s="3">
-        <v>600</v>
       </c>
       <c r="L41" s="3">
         <v>600</v>
       </c>
       <c r="M41" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N41" s="3">
         <v>700</v>
@@ -2183,16 +2270,19 @@
         <v>700</v>
       </c>
       <c r="P41" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q41" s="3">
         <v>800</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>900</v>
       </c>
       <c r="R41" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2331,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2253,22 +2346,22 @@
         <v>600</v>
       </c>
       <c r="F43" s="3">
+        <v>600</v>
+      </c>
+      <c r="G43" s="3">
         <v>500</v>
-      </c>
-      <c r="G43" s="3">
-        <v>400</v>
       </c>
       <c r="H43" s="3">
         <v>400</v>
       </c>
       <c r="I43" s="3">
+        <v>400</v>
+      </c>
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
-      </c>
-      <c r="K43" s="3">
-        <v>300</v>
       </c>
       <c r="L43" s="3">
         <v>300</v>
@@ -2277,22 +2370,25 @@
         <v>300</v>
       </c>
       <c r="N43" s="3">
+        <v>300</v>
+      </c>
+      <c r="O43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
-      </c>
-      <c r="P43" s="3">
-        <v>200</v>
       </c>
       <c r="Q43" s="3">
         <v>200</v>
       </c>
       <c r="R43" s="3">
+        <v>200</v>
+      </c>
+      <c r="S43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2303,13 +2399,13 @@
         <v>300</v>
       </c>
       <c r="F44" s="3">
+        <v>300</v>
+      </c>
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>500</v>
-      </c>
-      <c r="H44" s="3">
-        <v>400</v>
       </c>
       <c r="I44" s="3">
         <v>400</v>
@@ -2327,13 +2423,13 @@
         <v>400</v>
       </c>
       <c r="N44" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O44" s="3">
         <v>500</v>
       </c>
       <c r="P44" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q44" s="3">
         <v>400</v>
@@ -2341,8 +2437,11 @@
       <c r="R44" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2356,20 +2455,20 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
@@ -2383,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
@@ -2391,8 +2490,11 @@
       <c r="R45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2400,49 +2502,52 @@
         <v>1900</v>
       </c>
       <c r="E46" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="F46" s="3">
         <v>2000</v>
       </c>
       <c r="G46" s="3">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="H46" s="3">
         <v>1500</v>
       </c>
       <c r="I46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J46" s="3">
         <v>1300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1300</v>
-      </c>
-      <c r="L46" s="3">
-        <v>1400</v>
       </c>
       <c r="M46" s="3">
         <v>1400</v>
       </c>
       <c r="N46" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="O46" s="3">
         <v>1500</v>
       </c>
       <c r="P46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q46" s="3">
         <v>1600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,22 +2596,25 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>900</v>
+      </c>
+      <c r="E48" s="3">
         <v>700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>400</v>
-      </c>
-      <c r="G48" s="3">
-        <v>300</v>
       </c>
       <c r="H48" s="3">
         <v>300</v>
@@ -2533,7 +2641,7 @@
         <v>300</v>
       </c>
       <c r="P48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q48" s="3">
         <v>400</v>
@@ -2541,8 +2649,11 @@
       <c r="R48" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E54" s="3">
         <v>2600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1600</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1700</v>
       </c>
       <c r="M54" s="3">
         <v>1700</v>
       </c>
       <c r="N54" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="O54" s="3">
         <v>1800</v>
       </c>
       <c r="P54" s="3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="Q54" s="3">
         <v>2000</v>
       </c>
       <c r="R54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S54" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,19 +3011,20 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -2931,8 +3062,11 @@
       <c r="R57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2946,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
@@ -2961,7 +3095,7 @@
         <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2981,8 +3115,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2990,13 +3127,13 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>300</v>
       </c>
       <c r="G59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
@@ -3031,19 +3168,22 @@
       <c r="R59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>400</v>
+      </c>
+      <c r="E60" s="3">
         <v>600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>500</v>
-      </c>
-      <c r="F60" s="3">
-        <v>400</v>
       </c>
       <c r="G60" s="3">
         <v>400</v>
@@ -3052,13 +3192,13 @@
         <v>400</v>
       </c>
       <c r="I60" s="3">
+        <v>400</v>
+      </c>
+      <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
-      </c>
-      <c r="K60" s="3">
-        <v>300</v>
       </c>
       <c r="L60" s="3">
         <v>300</v>
@@ -3067,22 +3207,25 @@
         <v>300</v>
       </c>
       <c r="N60" s="3">
+        <v>300</v>
+      </c>
+      <c r="O60" s="3">
         <v>400</v>
-      </c>
-      <c r="O60" s="3">
-        <v>300</v>
       </c>
       <c r="P60" s="3">
         <v>300</v>
       </c>
       <c r="Q60" s="3">
+        <v>300</v>
+      </c>
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3096,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>200</v>
@@ -3114,7 +3257,7 @@
         <v>200</v>
       </c>
       <c r="M61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N61" s="3">
         <v>300</v>
@@ -3131,8 +3274,11 @@
       <c r="R61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,22 +3486,25 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>400</v>
+      </c>
+      <c r="E66" s="3">
         <v>600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>400</v>
-      </c>
-      <c r="G66" s="3">
-        <v>500</v>
       </c>
       <c r="H66" s="3">
         <v>500</v>
@@ -3355,13 +3513,13 @@
         <v>500</v>
       </c>
       <c r="J66" s="3">
+        <v>500</v>
+      </c>
+      <c r="K66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>500</v>
-      </c>
-      <c r="L66" s="3">
-        <v>600</v>
       </c>
       <c r="M66" s="3">
         <v>600</v>
@@ -3376,13 +3534,16 @@
         <v>600</v>
       </c>
       <c r="Q66" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="R66" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,13 +3772,16 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E72" s="3">
         <v>0</v>
@@ -3616,43 +3790,46 @@
         <v>0</v>
       </c>
       <c r="G72" s="3">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="H72" s="3">
         <v>-800</v>
       </c>
       <c r="I72" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J72" s="3">
         <v>-900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-800</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-900</v>
       </c>
       <c r="L72" s="3">
         <v>-900</v>
       </c>
       <c r="M72" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="N72" s="3">
         <v>-800</v>
       </c>
       <c r="O72" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="P72" s="3">
         <v>-700</v>
       </c>
       <c r="Q72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R72" s="3">
         <v>-600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,13 +3984,16 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="E76" s="3">
         <v>2000</v>
@@ -3816,43 +4002,46 @@
         <v>2000</v>
       </c>
       <c r="G76" s="3">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="H76" s="3">
         <v>1200</v>
       </c>
       <c r="I76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J76" s="3">
         <v>1100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1200</v>
-      </c>
-      <c r="K76" s="3">
-        <v>1100</v>
       </c>
       <c r="L76" s="3">
         <v>1100</v>
       </c>
       <c r="M76" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="N76" s="3">
         <v>1200</v>
       </c>
       <c r="O76" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="P76" s="3">
         <v>1300</v>
       </c>
       <c r="Q76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R76" s="3">
         <v>1400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,101 +4090,107 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
       <c r="O81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
@@ -4006,8 +4201,11 @@
       <c r="R81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
-        <v>-100</v>
-      </c>
       <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
-        <v>-100</v>
-      </c>
       <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R89" s="3">
         <v>100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,17 +4616,18 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
@@ -4417,22 +4638,22 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,17 +4773,20 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -4567,10 +4797,10 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -4596,8 +4826,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,8 +5059,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4828,10 +5074,10 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -4866,8 +5112,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,8 +5165,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4928,42 +5180,45 @@
         <v>-100</v>
       </c>
       <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>-100</v>
-      </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>
